--- a/docs/stock.xlsx
+++ b/docs/stock.xlsx
@@ -1,63 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerHV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\PowerHV\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E832557-2136-4FBD-80DF-F84E84B41BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E3B2E6-C542-4140-973B-496ABCFF7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>raspberry pi</t>
-  </si>
-  <si>
-    <t>sd card</t>
-  </si>
-  <si>
-    <t>adc board</t>
-  </si>
-  <si>
-    <t>power board</t>
-  </si>
-  <si>
-    <t>lte base</t>
-  </si>
-  <si>
-    <t>lte module</t>
-  </si>
-  <si>
-    <t>sim</t>
-  </si>
-  <si>
-    <t>white attenna</t>
-  </si>
-  <si>
-    <t>dual attenna</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>temperature sensor</t>
   </si>
   <si>
-    <t>https://sixfab.com/product/raspberry-pi-4g-lte-modem-kit/</t>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Main board</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/raspberry-pi-3-model-b-armv8-with-1g-ram/</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3 - Model B - ARMv8 with 1G RAM</t>
+  </si>
+  <si>
+    <t>SanDisk Edge 16GB MicroSD Card - A1 U1 Class 10 - BLANK</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>WITTY PI 3 REV2</t>
+  </si>
+  <si>
+    <t>Raspberry Pi High-Precision AD/DA Expansion Board</t>
+  </si>
+  <si>
+    <t>https://elmwoodelectronics.ca/products/witty-pi-3-realtime-clock-and-power-management-for-raspberry-pi?gclid=Cj0KCQiAmL-ABhDFARIsAKywVaeuFAuX8WalnORhLQ6X_ClTkPlNu7kgK4h5a0YrV1uK0ctp7WkjhjsaAjCzEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/sandisk-edge-16gb-microsd-card-a1-u1-class-10-blank/</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/raspberry-pi-high-precision-adda-expansion-board/</t>
+  </si>
+  <si>
+    <t>LTE Base Board</t>
+  </si>
+  <si>
+    <t>ADC Board</t>
+  </si>
+  <si>
+    <t>Power Board</t>
+  </si>
+  <si>
+    <t>https://sixfab.com/product/quectel-ec25-mini-pcie-4g-lte-module/</t>
+  </si>
+  <si>
+    <t>Quectel EC25-G Mini PCIe 4G/LTE Module</t>
+  </si>
+  <si>
+    <t>LTE Module</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3G/4G &amp; LTE Base HAT</t>
+  </si>
+  <si>
+    <t>https://sixfab.com/product/raspberry-pi-base-hat-3g-4g-lte-minipcie-cards/</t>
+  </si>
+  <si>
+    <t>SIM Card</t>
+  </si>
+  <si>
+    <t>https://sixfab.com/product/connect-sim-card-for-iot-projects/</t>
+  </si>
+  <si>
+    <t>Sixfab SIM</t>
+  </si>
+  <si>
+    <t>Vibration Sensor</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/arduino-compatible-tapknock-sensor-omnidirectional-operation/</t>
+  </si>
+  <si>
+    <t>Arduino Compatible Tap/Knock Sensor (Omnidirectional operation)</t>
+  </si>
+  <si>
+    <t>Temperature Sensor</t>
+  </si>
+  <si>
+    <t>LTE Full Band PCB Antenna – u.FL Plug – 100mm</t>
+  </si>
+  <si>
+    <t>https://sixfab.com/product/lte-full-band-pcb-antenna-u-fl-plug-100mm/</t>
+  </si>
+  <si>
+    <t>LTE – GNSS Dual u.FL Antenna – 100mm</t>
+  </si>
+  <si>
+    <t>https://sixfab.com/product/lte-gnss-dual-u-fl-antenna/</t>
+  </si>
+  <si>
+    <t>White Antenna</t>
+  </si>
+  <si>
+    <t>Black Antenna</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/dfrobot/SEN0137/6588461</t>
   </si>
 </sst>
 </file>
@@ -102,9 +191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,105 +480,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="95.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46.95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>33.99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E7" s="1">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
+      <c r="E11" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{A2697F74-471A-43B8-BC96-C5D6067F8C89}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{A2697F74-471A-43B8-BC96-C5D6067F8C89}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{28B2409F-83DA-4375-A462-97C75A01474E}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{1F2DB8D4-32B1-4FCA-B0CC-3ADA99F9378F}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{DD4884C7-01B4-4BAB-84DA-8EE7288373AE}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{E01079F7-FC69-4629-B66F-6D7FEED43DCC}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{BA02E3B4-88EC-468A-92EB-186BCA7E4D26}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{C224FA9C-538F-45A8-A629-A8C482F8B2E4}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{F687CEA2-ABD9-4435-8B8E-157C14140034}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{30F98D87-38F6-429D-9477-1304A074995C}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{AC235723-6152-4825-8E83-122A0CE57ECC}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{FA8CCA7F-928B-4EB0-AF1E-8B078542E0A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3955C3DE-84D2-4E49-9A90-1E9F47DF6F90}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>